--- a/result/NCDC_weather_data/stations_imputed/57516099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/57516099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>8.886398030513176</v>
+      </c>
       <c r="O2" t="n">
         <v>131.72</v>
       </c>
@@ -625,7 +627,9 @@
       <c r="M3" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>8.886398030513176</v>
+      </c>
       <c r="O3" t="n">
         <v>131</v>
       </c>
@@ -681,7 +685,9 @@
       <c r="M4" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>8.886398030513176</v>
+      </c>
       <c r="O4" t="n">
         <v>128.12</v>
       </c>
@@ -737,7 +743,9 @@
       <c r="M5" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>8.886398030513176</v>
+      </c>
       <c r="O5" t="n">
         <v>124.88</v>
       </c>
@@ -793,7 +801,9 @@
       <c r="M6" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>8.886398030513176</v>
+      </c>
       <c r="O6" t="n">
         <v>128.48</v>
       </c>
@@ -849,7 +859,9 @@
       <c r="M7" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>8.886398030513176</v>
+      </c>
       <c r="O7" t="n">
         <v>128.84</v>
       </c>
@@ -905,7 +917,9 @@
       <c r="M8" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>8.886398030513176</v>
+      </c>
       <c r="O8" t="n">
         <v>128.84</v>
       </c>
@@ -961,7 +975,9 @@
       <c r="M9" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>8.886398030513176</v>
+      </c>
       <c r="O9" t="n">
         <v>126.14</v>
       </c>
@@ -1017,7 +1033,9 @@
       <c r="M10" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>8.886398030513176</v>
+      </c>
       <c r="O10" t="n">
         <v>132.62</v>
       </c>
